--- a/xlsx/保罗·瑞安_intext.xlsx
+++ b/xlsx/保罗·瑞安_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>保罗·瑞安</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國眾議院議長</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_保罗·瑞安</t>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_保罗·瑞安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A7%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拉克·奧巴馬</t>
+    <t>巴拉克·奥巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8D%9A%E7%B4%8D</t>
   </si>
   <si>
-    <t>約翰·博納</t>
+    <t>约翰·博纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E7%B1%8C%E6%AC%BE%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國眾議院籌款委員會</t>
+    <t>美国众议院筹款委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E5%A4%AB%C2%B7%E5%9D%8E%E6%99%AE</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%96%AF%E6%99%AE%E6%8B%89%E7%89%B9</t>
   </si>
   <si>
-    <t>約翰·斯普拉特</t>
+    <t>约翰·斯普拉特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E6%99%AE%E8%B3%B4%E6%96%AF_(%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9)</t>
   </si>
   <si>
-    <t>湯姆·普賴斯 (美國政治人物)</t>
+    <t>汤姆·普赖斯 (美国政治人物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>邁阿密大學</t>
+    <t>迈阿密大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%89%B9%C2%B7%E7%BE%85%E5%A7%86%E5%B0%BC</t>
   </si>
   <si>
-    <t>米特·羅姆尼</t>
+    <t>米特·罗姆尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2012年美國總統選舉</t>
+    <t>2012年美国总统选举</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paul_Ryan%27s_Vice_Presidential_candidacy</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%A7%86%C2%B7%E5%B8%83%E6%9C%97%E5%B7%B4%E5%85%8B</t>
@@ -257,13 +257,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%89%B9%C2%B7%E7%BD%97%E5%A7%86%E5%B0%BC</t>
   </si>
   <si>
-    <t>米特·罗姆尼</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%B7%B4%E9%A6%AC</t>
   </si>
   <si>
-    <t>歐巴馬</t>
+    <t>欧巴马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%C2%B7%E6%8B%9C%E7%99%BB</t>
@@ -275,15 +272,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%B2%9D%E7%B4%8D</t>
   </si>
   <si>
-    <t>約翰·貝納</t>
+    <t>约翰·贝纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
@@ -335,15 +329,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E6%99%AE%E8%90%8A%E6%96%AF</t>
   </si>
   <si>
-    <t>湯姆·普萊斯</t>
+    <t>汤姆·普莱斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E7%AD%B9%E6%AC%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
-    <t>美国众议院筹款委员会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E6%8B%89%C2%B7%E4%BD%A9%E6%9E%97</t>
   </si>
   <si>
@@ -359,25 +350,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
   </si>
   <si>
-    <t>美國總統繼任順序</t>
+    <t>美国总统继任顺序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
   </si>
   <si>
-    <t>美国众议院议长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國參議院臨時議長</t>
+    <t>美国参议院临时议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
   </si>
   <si>
-    <t>奧林·哈奇</t>
+    <t>奥林·哈奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
@@ -401,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E6%A2%85%E5%8A%AA%E6%AC%BD</t>
   </si>
   <si>
-    <t>史蒂芬·梅努欽</t>
+    <t>史蒂芬·梅努钦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8%E9%95%BF</t>
@@ -425,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%A4%AB%C2%B7%E5%A1%9E%E7%94%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>傑夫·塞申斯</t>
+    <t>杰夫·塞申斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8%E9%95%BF</t>
@@ -437,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%AE%89%C2%B7%E6%B4%A5%E5%87%B1</t>
   </si>
   <si>
-    <t>瑞安·津凱</t>
+    <t>瑞安·津凯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8%E9%95%BF</t>
@@ -473,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E9%98%BF%E7%A7%91%E6%96%AF%E5%A1%94</t>
   </si>
   <si>
-    <t>亞歷山大·阿科斯塔</t>
+    <t>亚历山大·阿科斯塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
@@ -503,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國能源部長</t>
+    <t>美国能源部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%85%8B%C2%B7%E4%BD%A9%E9%87%8C</t>
@@ -515,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國教育部長</t>
+    <t>美国教育部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%90%AA%C2%B7%E5%BE%B7%E6%B2%83%E6%96%AF</t>
@@ -569,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2016年美國總統選舉</t>
+    <t>2016年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE%E5%85%A8%E5%9B%BD%E6%B0%91%E6%84%8F%E8%B0%83%E6%9F%A5</t>
@@ -605,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%C2%B7%E7%BE%85%E5%82%91%E6%96%AF</t>
   </si>
   <si>
-    <t>占·羅傑斯</t>
+    <t>占·罗杰斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/2012_Republican_National_Convention</t>
@@ -623,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E7%88%BE%C2%B7%E5%B7%B4%E8%B5%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>米歇爾·巴赫曼</t>
+    <t>米歇尔·巴赫曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E6%9B%BC%C2%B7%E5%87%AF%E6%81%A9</t>
@@ -635,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%8D%9A%E5%9F%B9</t>
@@ -647,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%C2%B7%E7%B4%84%E7%BF%B0%E9%81%9C</t>
   </si>
   <si>
-    <t>加里·約翰遜</t>
+    <t>加里·约翰逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E8%BF%AA%E5%8E%84%E6%96%AF%C2%B7%E9%BA%A6%E7%A7%91%E7%89%B9%E5%B0%94</t>
@@ -671,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E4%BF%9D%E7%BE%85</t>
   </si>
   <si>
-    <t>榮·保羅</t>
+    <t>荣·保罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A7%86%C2%B7%E6%99%AE%E8%98%AD%E6%8F%90</t>
   </si>
   <si>
-    <t>蒂姆·普蘭提</t>
+    <t>蒂姆·普兰提</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%85%8B%C2%B7%E6%A1%91%E6%89%98%E5%8B%92%E5%A7%86</t>
@@ -707,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%C2%B7%E6%96%AF%E6%B3%B0%E5%9B%A0</t>
   </si>
   <si>
-    <t>吉爾·斯泰因</t>
+    <t>吉尔·斯泰因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%BF%E7%8F%8A%E5%A6%AE%C2%B7%E5%B7%B4%E7%88%BE</t>
   </si>
   <si>
-    <t>蘿珊妮·巴爾</t>
+    <t>萝珊妮·巴尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%BE%8E%E5%9C%8B%E5%B7%9E%E9%95%B7%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2012年美國州長選舉</t>
+    <t>2012年美国州长选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E7%BA%B3%E6%A3%AE%C2%B7%E6%88%B4%E9%A1%BF</t>
@@ -737,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>安德魯·史蒂文森</t>
+    <t>安德鲁·史蒂文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF%C2%B7%E6%B3%A2%E5%B0%94%E5%85%8B</t>
@@ -809,13 +797,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%B8%8C%C2%B7%E4%BD%A9%E6%B4%9B%E8%A5%BF</t>
   </si>
   <si>
-    <t>蘭希·佩洛西</t>
+    <t>兰希·佩洛西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E5%9C%8B%E5%AE%B6%E4%BA%BA%E7%89%A9%E5%82%B3%E8%A8%98%E5%A4%A7%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>美國國會國家人物傳記大辭典</t>
+    <t>美国国会国家人物传记大辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
@@ -2414,7 +2402,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2440,10 +2428,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2469,10 +2457,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2498,10 +2486,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2527,10 +2515,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G46" t="n">
         <v>7</v>
@@ -2556,10 +2544,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2585,10 +2573,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2614,10 +2602,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2672,10 +2660,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2701,10 +2689,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2730,10 +2718,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2759,10 +2747,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2846,10 +2834,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2875,10 +2863,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2904,10 +2892,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2933,10 +2921,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2962,10 +2950,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2991,10 +2979,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3020,10 +3008,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3049,10 +3037,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3078,10 +3066,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3107,10 +3095,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3136,10 +3124,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3165,10 +3153,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3194,10 +3182,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3223,10 +3211,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3252,10 +3240,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3281,10 +3269,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3310,10 +3298,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3339,10 +3327,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3368,10 +3356,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3397,10 +3385,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3426,10 +3414,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3455,10 +3443,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3484,10 +3472,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3513,10 +3501,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3542,10 +3530,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3571,10 +3559,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3600,10 +3588,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3629,10 +3617,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3658,10 +3646,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3687,10 +3675,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3716,10 +3704,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3745,10 +3733,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3774,10 +3762,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3803,10 +3791,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3832,10 +3820,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3861,10 +3849,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3890,10 +3878,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3919,10 +3907,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3948,10 +3936,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>8</v>
@@ -3977,10 +3965,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4035,10 +4023,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4064,10 +4052,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4093,10 +4081,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4122,10 +4110,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4151,10 +4139,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4180,10 +4168,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4209,10 +4197,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" t="s">
         <v>83</v>
-      </c>
-      <c r="F104" t="s">
-        <v>84</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4238,10 +4226,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4267,10 +4255,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4296,10 +4284,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4325,10 +4313,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4354,10 +4342,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4383,10 +4371,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4412,10 +4400,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4441,10 +4429,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4470,10 +4458,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4499,10 +4487,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G114" t="n">
         <v>16</v>
@@ -4528,10 +4516,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4557,10 +4545,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4586,10 +4574,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4615,10 +4603,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4644,10 +4632,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4673,10 +4661,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4702,10 +4690,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4731,10 +4719,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4760,10 +4748,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4789,10 +4777,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4847,10 +4835,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4876,10 +4864,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -4905,10 +4893,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4934,10 +4922,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4963,10 +4951,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4992,10 +4980,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5021,10 +5009,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5050,10 +5038,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5079,10 +5067,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5108,10 +5096,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5137,10 +5125,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5166,10 +5154,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5195,10 +5183,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5224,10 +5212,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F139" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5253,10 +5241,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5282,10 +5270,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5340,10 +5328,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5369,10 +5357,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5398,10 +5386,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5427,10 +5415,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5456,10 +5444,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5485,10 +5473,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5514,10 +5502,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G149" t="n">
         <v>7</v>
@@ -5543,10 +5531,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F150" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
